--- a/public/assets/excel/dropdown-options-sample.xlsx
+++ b/public/assets/excel/dropdown-options-sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TOMSHER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Jisha_Wampp\MOD\public\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B784D419-E2AF-403D-8E7A-92F6180E3615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2049952-B8A1-4D89-904C-6F527F340E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,34 +20,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Code</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
     <t>Sort Order</t>
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Dropdown Code</t>
+  </si>
+  <si>
+    <t>Value_en</t>
+  </si>
+  <si>
+    <t>Value_ar</t>
+  </si>
+  <si>
+    <t>departments</t>
+  </si>
+  <si>
+    <t>Minister of Defence</t>
+  </si>
+  <si>
+    <t>Chief of Staff</t>
+  </si>
+  <si>
+    <t>وزير الدفاع</t>
+  </si>
+  <si>
+    <t>رئيس اللأركان</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +74,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="MS Shell Dlg 2"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,10 +118,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -408,19 +432,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.5546875" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="1" max="1" width="21.21875" customWidth="1"/>
+    <col min="2" max="4" width="21.5546875" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -431,34 +456,52 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
+      <c r="E3" s="3">
+        <v>3</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
     </row>
